--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zandro\Documents\skilltree\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1803,20 +1811,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1826,7 +1836,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1836,38 +1846,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2057,27 +2074,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="38.25"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="25.75"/>
-    <col customWidth="1" min="6" max="6" width="25.0"/>
-    <col customWidth="1" min="7" max="7" width="25.63"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2132,10 +2154,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2161,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2190,10 +2212,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2219,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2248,10 +2270,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2277,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,10 +2328,10 @@
         <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2335,10 +2357,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2364,10 +2386,10 @@
         <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2393,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2422,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2451,10 +2473,10 @@
         <v>5</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2480,10 +2502,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2509,10 +2531,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2538,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -2567,10 +2589,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -2596,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -2625,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2654,10 +2676,10 @@
         <v>5</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -2683,10 +2705,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2712,10 +2734,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -2741,10 +2763,10 @@
         <v>4</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -2770,10 +2792,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -2799,10 +2821,10 @@
         <v>5</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -2828,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
@@ -2842,25 +2864,25 @@
         <v>98</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -2886,10 +2908,10 @@
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2900,25 +2922,25 @@
         <v>106</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -2929,25 +2951,25 @@
         <v>108</v>
       </c>
       <c r="D30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1">
-        <v>-13.0</v>
+        <v>-13</v>
       </c>
       <c r="G30" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -2973,10 +2995,10 @@
         <v>5</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>115</v>
       </c>
@@ -3002,10 +3024,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -3016,25 +3038,25 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
@@ -3060,10 +3082,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -3089,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -3118,10 +3140,10 @@
         <v>4</v>
       </c>
       <c r="I36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
@@ -3147,10 +3169,10 @@
         <v>5</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>144</v>
       </c>
@@ -3176,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
@@ -3205,10 +3227,10 @@
         <v>3</v>
       </c>
       <c r="I39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -3234,10 +3256,10 @@
         <v>4</v>
       </c>
       <c r="I40" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
@@ -3263,10 +3285,10 @@
         <v>6</v>
       </c>
       <c r="I41" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -3292,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
@@ -3321,10 +3343,10 @@
         <v>5</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -3350,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="I44" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>169</v>
       </c>
@@ -3379,10 +3401,10 @@
         <v>4</v>
       </c>
       <c r="I45" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -3408,10 +3430,10 @@
         <v>3</v>
       </c>
       <c r="I46" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>181</v>
       </c>
@@ -3437,10 +3459,10 @@
         <v>5</v>
       </c>
       <c r="I47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>186</v>
       </c>
@@ -3466,10 +3488,10 @@
         <v>4</v>
       </c>
       <c r="I48" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -3495,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="I49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -3524,10 +3546,10 @@
         <v>6</v>
       </c>
       <c r="I50" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>199</v>
       </c>
@@ -3553,10 +3575,10 @@
         <v>5</v>
       </c>
       <c r="I51" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
@@ -3582,10 +3604,10 @@
         <v>6</v>
       </c>
       <c r="I52" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>212</v>
       </c>
@@ -3611,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="I53" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>218</v>
       </c>
@@ -3640,10 +3662,10 @@
         <v>4</v>
       </c>
       <c r="I54" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>224</v>
       </c>
@@ -3669,10 +3691,10 @@
         <v>6</v>
       </c>
       <c r="I55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>230</v>
       </c>
@@ -3698,10 +3720,10 @@
         <v>5</v>
       </c>
       <c r="I56" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>236</v>
       </c>
@@ -3727,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="I57" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>242</v>
       </c>
@@ -3756,10 +3778,10 @@
         <v>4</v>
       </c>
       <c r="I58" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>248</v>
       </c>
@@ -3785,10 +3807,10 @@
         <v>4</v>
       </c>
       <c r="I59" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>254</v>
       </c>
@@ -3814,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="I60" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>260</v>
       </c>
@@ -3843,10 +3865,10 @@
         <v>5</v>
       </c>
       <c r="I61" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>266</v>
       </c>
@@ -3872,10 +3894,10 @@
         <v>6</v>
       </c>
       <c r="I62" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>272</v>
       </c>
@@ -3901,10 +3923,10 @@
         <v>5</v>
       </c>
       <c r="I63" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>278</v>
       </c>
@@ -3930,10 +3952,10 @@
         <v>6</v>
       </c>
       <c r="I64" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>284</v>
       </c>
@@ -3959,10 +3981,10 @@
         <v>5</v>
       </c>
       <c r="I65" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>290</v>
       </c>
@@ -3988,10 +4010,10 @@
         <v>4</v>
       </c>
       <c r="I66" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>296</v>
       </c>
@@ -4017,10 +4039,10 @@
         <v>3</v>
       </c>
       <c r="I67" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>302</v>
       </c>
@@ -4046,10 +4068,10 @@
         <v>6</v>
       </c>
       <c r="I68" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>308</v>
       </c>
@@ -4075,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="I69" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>314</v>
       </c>
@@ -4104,10 +4126,10 @@
         <v>3</v>
       </c>
       <c r="I70" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>320</v>
       </c>
@@ -4133,10 +4155,10 @@
         <v>6</v>
       </c>
       <c r="I71" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>326</v>
       </c>
@@ -4162,10 +4184,10 @@
         <v>4</v>
       </c>
       <c r="I72" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>331</v>
       </c>
@@ -4191,10 +4213,10 @@
         <v>3</v>
       </c>
       <c r="I73" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>337</v>
       </c>
@@ -4220,10 +4242,10 @@
         <v>6</v>
       </c>
       <c r="I74" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>343</v>
       </c>
@@ -4249,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="I75" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>349</v>
       </c>
@@ -4278,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="I76" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>352</v>
       </c>
@@ -4307,10 +4329,10 @@
         <v>4</v>
       </c>
       <c r="I77" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>359</v>
       </c>
@@ -4336,10 +4358,10 @@
         <v>5</v>
       </c>
       <c r="I78" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>364</v>
       </c>
@@ -4365,10 +4387,10 @@
         <v>4</v>
       </c>
       <c r="I79" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>368</v>
       </c>
@@ -4394,10 +4416,10 @@
         <v>3</v>
       </c>
       <c r="I80" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>370</v>
       </c>
@@ -4423,10 +4445,10 @@
         <v>4</v>
       </c>
       <c r="I81" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>372</v>
       </c>
@@ -4452,10 +4474,10 @@
         <v>6</v>
       </c>
       <c r="I82" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>378</v>
       </c>
@@ -4481,10 +4503,10 @@
         <v>5</v>
       </c>
       <c r="I83" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>381</v>
       </c>
@@ -4510,10 +4532,10 @@
         <v>6</v>
       </c>
       <c r="I84" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>387</v>
       </c>
@@ -4539,10 +4561,10 @@
         <v>6</v>
       </c>
       <c r="I85" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>391</v>
       </c>
@@ -4568,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="I86" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>397</v>
       </c>
@@ -4597,10 +4619,10 @@
         <v>4</v>
       </c>
       <c r="I87" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>401</v>
       </c>
@@ -4626,10 +4648,10 @@
         <v>5</v>
       </c>
       <c r="I88" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>407</v>
       </c>
@@ -4655,10 +4677,10 @@
         <v>4</v>
       </c>
       <c r="I89" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>412</v>
       </c>
@@ -4684,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="I90" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>417</v>
       </c>
@@ -4713,10 +4735,10 @@
         <v>4</v>
       </c>
       <c r="I91" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>423</v>
       </c>
@@ -4742,10 +4764,10 @@
         <v>5</v>
       </c>
       <c r="I92" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>429</v>
       </c>
@@ -4771,10 +4793,10 @@
         <v>5</v>
       </c>
       <c r="I93" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>435</v>
       </c>
@@ -4800,10 +4822,10 @@
         <v>6</v>
       </c>
       <c r="I94" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>441</v>
       </c>
@@ -4829,10 +4851,10 @@
         <v>3</v>
       </c>
       <c r="I95" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>443</v>
       </c>
@@ -4858,10 +4880,10 @@
         <v>4</v>
       </c>
       <c r="I96" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>445</v>
       </c>
@@ -4887,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="I97" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>451</v>
       </c>
@@ -4916,10 +4938,10 @@
         <v>5</v>
       </c>
       <c r="I98" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>457</v>
       </c>
@@ -4945,10 +4967,10 @@
         <v>5</v>
       </c>
       <c r="I99" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>463</v>
       </c>
@@ -4974,10 +4996,10 @@
         <v>3</v>
       </c>
       <c r="I100" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>469</v>
       </c>
@@ -5003,10 +5025,10 @@
         <v>5</v>
       </c>
       <c r="I101" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>475</v>
       </c>
@@ -5032,10 +5054,10 @@
         <v>5</v>
       </c>
       <c r="I102" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>482</v>
       </c>
@@ -5061,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="I103" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>488</v>
       </c>
@@ -5090,10 +5112,10 @@
         <v>5</v>
       </c>
       <c r="I104" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>490</v>
       </c>
@@ -5119,10 +5141,10 @@
         <v>4</v>
       </c>
       <c r="I105" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>492</v>
       </c>
@@ -5148,10 +5170,10 @@
         <v>6</v>
       </c>
       <c r="I106" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>494</v>
       </c>
@@ -5177,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="I107" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>500</v>
       </c>
@@ -5206,10 +5228,10 @@
         <v>6</v>
       </c>
       <c r="I108" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>506</v>
       </c>
@@ -5235,10 +5257,10 @@
         <v>4</v>
       </c>
       <c r="I109" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>512</v>
       </c>
@@ -5264,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="I110" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>518</v>
       </c>
@@ -5293,10 +5315,10 @@
         <v>4</v>
       </c>
       <c r="I111" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>520</v>
       </c>
@@ -5322,10 +5344,10 @@
         <v>4</v>
       </c>
       <c r="I112" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>526</v>
       </c>
@@ -5351,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="I113" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>532</v>
       </c>
@@ -5380,10 +5402,10 @@
         <v>3</v>
       </c>
       <c r="I114" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>538</v>
       </c>
@@ -5409,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="I115" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>542</v>
       </c>
@@ -5438,10 +5460,10 @@
         <v>5</v>
       </c>
       <c r="I116" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>548</v>
       </c>
@@ -5467,10 +5489,10 @@
         <v>6</v>
       </c>
       <c r="I117" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>554</v>
       </c>
@@ -5496,10 +5518,10 @@
         <v>4</v>
       </c>
       <c r="I118" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>558</v>
       </c>
@@ -5525,10 +5547,10 @@
         <v>6</v>
       </c>
       <c r="I119" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>564</v>
       </c>
@@ -5554,10 +5576,10 @@
         <v>3</v>
       </c>
       <c r="I120" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>570</v>
       </c>
@@ -5583,10 +5605,10 @@
         <v>6</v>
       </c>
       <c r="I121" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>575</v>
       </c>
@@ -5612,10 +5634,10 @@
         <v>6</v>
       </c>
       <c r="I122" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>579</v>
       </c>
@@ -5641,10 +5663,10 @@
         <v>5</v>
       </c>
       <c r="I123" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>585</v>
       </c>
@@ -5670,10 +5692,10 @@
         <v>4</v>
       </c>
       <c r="I124" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>587</v>
       </c>
@@ -5699,10 +5721,10 @@
         <v>5</v>
       </c>
       <c r="I125" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>593</v>
       </c>
@@ -5728,10 +5750,10 @@
         <v>5</v>
       </c>
       <c r="I126" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -2086,8 +2086,8 @@
   </sheetPr>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2908,7 +2908,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2995,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
